--- a/test/abs1n10.xlsx
+++ b/test/abs1n10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB323B-EDF7-4FB9-9D61-5D4B37D86DA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF63E982-EE97-402F-AC10-F26F90246BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="10320" windowHeight="10920" activeTab="1" xr2:uid="{E18A145F-BAE8-4E1E-8EB2-101646E3D7A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E18A145F-BAE8-4E1E-8EB2-101646E3D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
